--- a/CustomLocalization-RU/Localization/RogueTech/RU/ExperimentalWeapons/LocalizationDef.xlsx
+++ b/CustomLocalization-RU/Localization/RogueTech/RU/ExperimentalWeapons/LocalizationDef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="630" windowWidth="28455" windowHeight="10935"/>
+    <workbookView xWindow="150" yWindow="630" windowWidth="28455" windowHeight="6870"/>
   </bookViews>
   <sheets>
     <sheet name="Localization" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="571">
   <si>
     <t>Ammo_AmmunitionBox_RAPLBGR_GAUSS.Description.Details</t>
   </si>
@@ -214,7 +214,7 @@
   </si>
   <si>
     <t xml:space="preserve">Introduced at the turn of the century, the Blood Asp was created by the Smoke Jaguars in anticipation of the Clans' return to the Inner Sphere. This is a Custom configured Blood Asp by the Society to work as a test bed for the Experimental Heavy Silver Bullet Gauss Rifles.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прочный&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.25&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -236,12 +236,12 @@
     <t>chassisdef_cauldron_born_EBJ-CB.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Like An unstoppable Zombie, the mech known as the cauldron born takes the battlefeild striking fear into its opponents. &lt;/color&gt;&lt;/b&gt;
+    <t xml:space="preserve">Like An unstoppable Zombie, the mech known as the cauldron born takes the battlefield striking fear into its opponents.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Like An unstoppable Zombie, the mech known as the cauldron born takes the battlefeild striking fear into its opponents. &lt;/color&gt;&lt;/b&gt;
+    <t xml:space="preserve">Like An unstoppable Zombie, the mech known as the cauldron born takes the battlefield striking fear into its opponents.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
@@ -289,12 +289,12 @@
     <t>chassisdef_kugelblitz_SNV-KB.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">The Kugelblitz, also known as the Hypernova, Superluminous Supernova, or ''Type 1A Supernova'' is a gigantic Supernova chassis. Nothing really out of the ordinary until one checks the armor plating on it, mounting WarShip class ''Ferro-Carbide Lamellor'', this expensive armor is capable of protecting a mech's internals without issue, but the price to maintain the armor is only something even the richest of Clan Diamond Shark might have an issue.
+    <t xml:space="preserve">The Kugelblitz, also known as the Hypernova, Superluminous Supernova, or 'Type 1A Supernova' is a gigantic Supernova chassis. Nothing really out of the ordinary until one checks the armor plating on it, mounting WarShip class 'Ferro-Carbide Lamellor', this expensive armor is capable of protecting a 'Mech's internals without issue, but the price to maintain the armor is something even the richest of Clan Diamond Shark might have an issue with.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.38&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The Kugelblitz, also known as the Hypernova, Superluminous Supernova, or ''Type 1A Supernova'' is a gigantic Supernova chassis. Nothing really out of the ordinary until one checks the armor plating on it, mounting WarShip class ''Ferro-Carbide Lamellor'', this expensive armor is capable of protecting a mech's internals without issue, but the price to maintain the armor is only something even the richest of Clan Diamond Shark might have an issue.
+    <t xml:space="preserve">The Kugelblitz, also known as the Hypernova, Superluminous Supernova, or 'Type 1A Supernova' is a gigantic Supernova chassis. Nothing really out of the ordinary until one checks the armor plating on it, mounting WarShip class 'Ferro-Carbide Lamellor', this expensive armor is capable of protecting a 'Mech's internals without issue, but the price to maintain the armor is something even the richest of Clan Diamond Shark might have an issue with.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.38&lt;/color&gt;&lt;/b&gt;</t>
   </si>
@@ -308,7 +308,7 @@
     <t>chassisdef_kugelblitz_SNV-KB.YangsThoughts</t>
   </si>
   <si>
-    <t>The Kugelblitz, also known as the Hypernova, Superluminous Supernova, or ''Type 1A Supernova'' is a gigantic Supernova chassis. Nothing really out of the ordinary until one checks the armor plating on it, mounting WarShip class ''Ferro-Carbide Lamellor'', this expensive armor is capable of protecting a mech's internals without issue, but the price to maintain the armor is only something even the richest of Clan Diamond Shark might have an issue.</t>
+    <t>The Kugelblitz, also known as the Hypernova, Superluminous Supernova, or 'Type 1A Supernova' is a gigantic Supernova chassis. Nothing really out of the ordinary until one checks the armor plating on it, mounting WarShip class 'Ferro-Carbide Lamellor', this expensive armor is capable of protecting a 'Mech's internals without issue, but the price to maintain the armor is something even the richest of Clan Diamond Shark might have an issue with.</t>
   </si>
   <si>
     <t>chassisdef_lone_wolf_DW-LW.Description.Details</t>
@@ -517,7 +517,7 @@
     <t>chassisdef_stone_rhino_STRN-R.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">The maximum expresion of death at a Distance. Has an improved downscaled Railgun affixed on it Center Torso.
+    <t xml:space="preserve">The maximum expression of death at a Distance. Has an improved downscaled Railgun affixed on it Center Torso.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Distracting&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.34&lt;/color&gt;&lt;/b&gt;</t>
   </si>
@@ -1532,71 +1532,21 @@
     <t>mechdef_blood_asp_BAS-S.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Introduced at the turn of the century, the Blood Asp was created by the Smoke Jaguars in anticipation of the Clans' return to the Inner Sphere. A Custom configured Blood Asp by the Society to work as a test bed for the Experimental Heavy Silver Bullet Gauss Rifles
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.25&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduced at the turn of the century, the Blood Asp was created by the Smoke Jaguars in anticipation of the Clans' return to the Inner Sphere. A Custom configured Blood Asp by the Society to work as a test bed for the Experimental Heavy Silver Bullet Gauss Rifles
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.25&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>mechdef_cauldron_born_EBJ-CB.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Like An unstoppable Zombie, the mech known as the cauldron born takes the battlefield striking fear into its opponents.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Like An unstoppable Zombie, the mech known as the cauldron born takes the battlefield striking fear into its opponents.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>mechdef_clint_eastwood.Description.Details</t>
   </si>
   <si>
     <t>mechdef_kugelblitz_SNV-KB.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">While feared by the Inner Sphere, the Supernova design was born out of necessity in an attempt to address ammunition shortages by changing the original King Crab design to an all-energy loadout. The Boiler is a customized Supernova variant that seeks to re-engineer the Supernova back to the original King Crab loadout using Clan technology, essentially making the Boiler a “King Crab IIC”. It mounts an Ultra AC/20 in each arm supported by a Large Pulse Laser in the right torso and an LRM-15 rack in the left. As it was built upon the frame of the standard Supernova, it retains the jump jets but mounts only seventeen double heat sinks. Like its progenitor, the Boiler lacks field endurance, carrying only two tons of Ultra Autocannon rounds and one ton of LRM reloads.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.38&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While feared by the Inner Sphere, the Supernova design was born out of necessity in an attempt to address ammunition shortages by changing the original King Crab design to an all-energy loadout. The Boiler is a customized Supernova variant that seeks to re-engineer the Supernova back to the original King Crab loadout using Clan technology, essentially making the Boiler a “King Crab IIC”. It mounts an Ultra AC/20 in each arm supported by a Large Pulse Laser in the right torso and an LRM-15 rack in the left. As it was built upon the frame of the standard Supernova, it retains the jump jets but mounts only seventeen double heat sinks. Like its progenitor, the Boiler lacks field endurance, carrying only two tons of Ultra Autocannon rounds and one ton of LRM reloads.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.38&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>mechdef_lone_wolf_DW-LW.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">The variant piloted by Phelan Wolf at his Trial of Position to test out as a MechWarrior on 21 July 3051. Configured by Khan Natasha Kerensky (who was piloting the LRM variant of her Widowmaker in the same Trial). For long range, the Lone Wolf variant was armed with shoulder mounted twin LRM-20 launchers with 24 racks, first half being Swarm LRMs, backed up by a Gauss Rifle in left arm, with 16 slug coming from bins in the left torso. For close combat, the Lone Wolf carries three Medium Pulse Lasers in right arm, a stubby LB-X Autocannon/20 with 10 cluster rounds under-slung on right torso. &lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.26&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The variant piloted by Phelan Wolf at his Trial of Position to test out as a MechWarrior on 21 July 3051. Configured by Khan Natasha Kerensky (who was piloting the LRM variant of her Widowmaker in the same Trial). For long range, the Lone Wolf variant was armed with shoulder mounted twin LRM-20 launchers with 24 racks, first half being Swarm LRMs, backed up by a Gauss Rifle in left arm, with 16 slug coming from bins in the left torso. For close combat, the Lone Wolf carries three Medium Pulse Lasers in right arm, a stubby LB-X Autocannon/20 with 10 cluster rounds under-slung on right torso. &lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.26&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>mechdef_lone_wolf_DW-LW-AP.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">The variant piloted by Phelan Wolf at his Trial of Position to test out as a MechWarrior on 21 July 3051. Configured by Khan Natasha Kerensky (who was piloting the LRM variant of her Widowmaker in the same Trial). Different from the normal Lone Wolf, this variant has some weird experimental Rotary weapon system. Designed to ''delete'' infantry units. &lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.24&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The variant piloted by Phelan Wolf at his Trial of Position to test out as a MechWarrior on 21 July 3051. Configured by Khan Natasha Kerensky (who was piloting the LRM variant of her Widowmaker in the same Trial). Different from the normal Lone Wolf, this variant has some weird experimental Rotary weapon system. Designed to ''delete'' infantry units. &lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.24&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>mechdef_marauder_MAD-BH-R.Description.Details</t>
   </si>
   <si>
@@ -1616,11 +1566,6 @@
   </si>
   <si>
     <t>mechdef_stone_rhino_STRN-R.Description.Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum expression of death at a Distance. Has an improved downscaled Railgun affixed on it Center Torso.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Distracting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.34&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The maximum expression of death at a Distance. Has an improved downscaled Railgun affixed on it Center Torso.
@@ -1909,8 +1854,8 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
   </cellXfs>
@@ -2217,15 +2162,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="C336" sqref="C336"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="C319" sqref="C319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="72.140625" customWidth="1" style="2"/>
-    <col min="4" max="8" width="9.140625" customWidth="1" style="2"/>
-    <col min="9" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="10" width="9.140625" customWidth="1" style="2"/>
+    <col min="11" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2358,7 +2303,7 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -2666,7 +2611,7 @@
       <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -2708,7 +2653,7 @@
       <c r="A35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -2750,7 +2695,7 @@
       <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -2792,7 +2737,7 @@
       <c r="A41" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -2834,7 +2779,7 @@
       <c r="A44" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -2862,7 +2807,7 @@
       <c r="A46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -2876,7 +2821,7 @@
       <c r="A47" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -2918,7 +2863,7 @@
       <c r="A50" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -2960,7 +2905,7 @@
       <c r="A53" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -3002,7 +2947,7 @@
       <c r="A56" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -3044,7 +2989,7 @@
       <c r="A59" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -3086,7 +3031,7 @@
       <c r="A62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -3128,7 +3073,7 @@
       <c r="A65" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -3170,7 +3115,7 @@
       <c r="A68" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -3212,7 +3157,7 @@
       <c r="A71" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -4374,7 +4319,7 @@
       <c r="A154" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="2" t="s">
         <v>294</v>
       </c>
       <c r="C154" s="5" t="s">
@@ -5032,7 +4977,7 @@
       <c r="A201" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="2" t="s">
         <v>362</v>
       </c>
       <c r="C201" s="5" t="s">
@@ -5060,7 +5005,7 @@
       <c r="A203" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="3" t="s">
         <v>367</v>
       </c>
       <c r="C203" s="6" t="s">
@@ -5088,7 +5033,7 @@
       <c r="A205" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="3" t="s">
         <v>367</v>
       </c>
       <c r="C205" s="6" t="s">
@@ -5116,7 +5061,7 @@
       <c r="A207" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B207" s="3" t="s">
         <v>367</v>
       </c>
       <c r="C207" s="6" t="s">
@@ -5424,7 +5369,7 @@
       <c r="A229" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="2" t="s">
         <v>409</v>
       </c>
       <c r="C229" s="5" t="s">
@@ -5620,7 +5565,7 @@
       <c r="A243" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="B243" s="3" t="s">
         <v>367</v>
       </c>
       <c r="C243" s="6" t="s">
@@ -5648,7 +5593,7 @@
       <c r="A245" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B245" s="3" t="s">
         <v>367</v>
       </c>
       <c r="C245" s="6" t="s">
@@ -5676,7 +5621,7 @@
       <c r="A247" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="B247" s="3" t="s">
         <v>367</v>
       </c>
       <c r="C247" s="6" t="s">
@@ -5704,7 +5649,7 @@
       <c r="A249" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" s="3" t="s">
         <v>367</v>
       </c>
       <c r="C249" s="6" t="s">
@@ -5802,7 +5747,7 @@
       <c r="A256" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B256" s="3" t="s">
         <v>367</v>
       </c>
       <c r="C256" s="6" t="s">
@@ -5872,7 +5817,7 @@
       <c r="A261" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" s="2" t="s">
         <v>451</v>
       </c>
       <c r="C261" s="5" t="s">
@@ -6180,7 +6125,7 @@
       <c r="A283" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B283" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C283" s="5" t="s">
@@ -6194,11 +6139,11 @@
       <c r="A284" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B284" s="3" t="s">
-        <v>486</v>
+      <c r="B284" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>487</v>
+        <v>63</v>
       </c>
       <c r="E284" s="2">
         <v>284</v>
@@ -6206,13 +6151,13 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>490</v>
+        <v>71</v>
       </c>
       <c r="E285" s="2">
         <v>285</v>
@@ -6220,9 +6165,9 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B286" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C286" s="5" t="s">
@@ -6234,13 +6179,13 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>493</v>
+        <v>488</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>494</v>
+        <v>86</v>
       </c>
       <c r="E287" s="2">
         <v>287</v>
@@ -6248,13 +6193,13 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="B288" s="3" t="s">
-        <v>496</v>
+        <v>489</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>497</v>
+        <v>93</v>
       </c>
       <c r="E288" s="2">
         <v>288</v>
@@ -6262,13 +6207,13 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>499</v>
+        <v>490</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="E289" s="2">
         <v>289</v>
@@ -6276,9 +6221,9 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B290" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C290" s="5" t="s">
@@ -6290,9 +6235,9 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B291" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C291" s="5" t="s">
@@ -6304,9 +6249,9 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B292" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C292" s="5" t="s">
@@ -6318,9 +6263,9 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B293" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C293" s="5" t="s">
@@ -6332,9 +6277,9 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="B294" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C294" s="5" t="s">
@@ -6346,9 +6291,9 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B295" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C295" s="5" t="s">
@@ -6360,13 +6305,13 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B296" s="3" t="s">
-        <v>508</v>
+        <v>497</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="E296" s="2">
         <v>296</v>
@@ -6374,13 +6319,13 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>511</v>
+        <v>499</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>500</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="E297" s="2">
         <v>297</v>
@@ -6388,13 +6333,13 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="E298" s="2">
         <v>298</v>
@@ -6402,13 +6347,13 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="E299" s="2">
         <v>299</v>
@@ -6416,13 +6361,13 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>518</v>
+        <v>506</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="E300" s="2">
         <v>300</v>
@@ -6430,13 +6375,13 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="E301" s="2">
         <v>301</v>
@@ -6444,13 +6389,13 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="E302" s="2">
         <v>302</v>
@@ -6458,13 +6403,13 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>525</v>
+        <v>513</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>514</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="E303" s="2">
         <v>303</v>
@@ -6472,13 +6417,13 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="E304" s="2">
         <v>304</v>
@@ -6486,13 +6431,13 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="E305" s="2">
         <v>305</v>
@@ -6500,13 +6445,13 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="B306" s="3" t="s">
-        <v>532</v>
+        <v>520</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>521</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="E306" s="2">
         <v>306</v>
@@ -6514,13 +6459,13 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="E307" s="2">
         <v>307</v>
@@ -6528,13 +6473,13 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="E308" s="2">
         <v>308</v>
@@ -6542,13 +6487,13 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>538</v>
+        <v>526</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="E309" s="2">
         <v>309</v>
@@ -6556,13 +6501,13 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="E310" s="2">
         <v>310</v>
@@ -6570,13 +6515,13 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="E311" s="2">
         <v>311</v>
@@ -6584,13 +6529,13 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B312" s="3" t="s">
-        <v>545</v>
+        <v>533</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>534</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="E312" s="2">
         <v>312</v>
@@ -6598,13 +6543,13 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="E313" s="2">
         <v>313</v>
@@ -6612,13 +6557,13 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E314" s="2">
         <v>314</v>
@@ -6626,13 +6571,13 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>552</v>
+        <v>540</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>541</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="E315" s="2">
         <v>315</v>
@@ -6640,13 +6585,13 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="E316" s="2">
         <v>316</v>
@@ -6654,13 +6599,13 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="E317" s="2">
         <v>317</v>
@@ -6668,13 +6613,13 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>558</v>
+        <v>546</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>547</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E318" s="2">
         <v>318</v>
@@ -6682,13 +6627,13 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="E319" s="2">
         <v>319</v>
@@ -6696,13 +6641,13 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="E320" s="2">
         <v>320</v>
@@ -6710,13 +6655,13 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>564</v>
+        <v>552</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>553</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="E321" s="2">
         <v>321</v>
@@ -6724,13 +6669,13 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="E322" s="2">
         <v>322</v>
@@ -6738,13 +6683,13 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="E323" s="2">
         <v>323</v>
@@ -6752,13 +6697,13 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="E324" s="2">
         <v>324</v>
@@ -6766,13 +6711,13 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="E325" s="2">
         <v>325</v>
@@ -6780,13 +6725,13 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="E326" s="2">
         <v>326</v>
@@ -6794,7 +6739,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>23</v>
@@ -6808,7 +6753,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>25</v>
@@ -6822,7 +6767,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>27</v>
@@ -6836,7 +6781,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>29</v>
@@ -6850,7 +6795,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>31</v>
@@ -6864,7 +6809,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>33</v>
